--- a/sprints/sprint4/productBacklog/Product Backlog.xlsx
+++ b/sprints/sprint4/productBacklog/Product Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Captsone\Group3Spring2024Capstone\documentation\productBacklog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559F4CA4-8C1F-4CA6-AE50-3A9E7BCA2471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1450A529-603E-4782-95D4-84ABA849AB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11460" yWindow="-21600" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,7 +477,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,7 +575,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>4</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>4</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>4</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>4</v>
